--- a/Locations.xlsx
+++ b/Locations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tutorials\Tests\PropsAMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tutorials\Tests\PropsAMC\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF44E5F-5A94-4527-B05A-E9C3C9274A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D78BBB-B747-4A7E-BC0C-E698BDFE37DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{B0C0FF84-0EEB-434A-B996-8687CCE2116B}"/>
   </bookViews>
@@ -25,24 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Langmeidong Bazar, Manipur</t>
+    <t>Places</t>
   </si>
   <si>
-    <t>Mountain View, CA</t>
+    <t>The Great Pyramid of Giza, Al Haram, Nazlet El-Semman, Al Giza Desert, Giza Governorate, Egypt</t>
   </si>
   <si>
-    <t>Imphal, Manipur, India</t>
+    <t>Taj Mahal, Agra, Uttar Pradesh, India</t>
   </si>
   <si>
-    <t>Bengaluru, India</t>
+    <t>Eiffel Tower, Mountain View,Champ de Mars, 5 Avenue Anatole France, 75007 Paris, France CA</t>
   </si>
   <si>
-    <t>Delhi, India</t>
-  </si>
-  <si>
-    <t>Places</t>
+    <t>Red Fort, Netaji Subhash Marg, Lal Qila, Chandni Chowk, New Delhi, India</t>
   </si>
 </sst>
 </file>
@@ -394,46 +391,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF088152-F6A0-4AC3-9512-6AE75B27D9B0}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="80.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>